--- a/test.xlsx
+++ b/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="14775"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="14775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +64,38 @@
   </si>
   <si>
     <t>Jane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_STR 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -421,27 +450,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>123</v>
@@ -452,10 +481,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>456</v>
@@ -469,4 +498,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>